--- a/chapters/ch04-Affluence/datasets/Ch4ExpCurveFits.xlsx
+++ b/chapters/ch04-Affluence/datasets/Ch4ExpCurveFits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch04-Affluence/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FDEC2604-05B4-2143-A103-9DACB4C0F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F7F3D-A73C-6F4B-AFAF-5A2895583019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP fit 1950 onward" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -49,22 +49,28 @@
     <t>b</t>
   </si>
   <si>
-    <t>world_gdp_2017_intl_dollars_fit</t>
-  </si>
-  <si>
     <t>coeffs</t>
   </si>
   <si>
-    <t>value</t>
+    <t>gdppc_2017_thousand_intl_dollars_per_capita_fit</t>
   </si>
   <si>
-    <t>gdppc_2017_thousand_intl_dollars_per_capita_fit</t>
+    <t>values</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>world_gdp_trillion_2017_intl_dollars_fit</t>
+  </si>
+  <si>
+    <t>world_gdp_trillion_2017_intl_dollars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -675,8 +681,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.8955785671485598E-2"/>
-                  <c:y val="0.57369450751171436"/>
+                  <c:x val="5.7826839169219602E-2"/>
+                  <c:y val="-4.2428626636394379E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.0000000000E+00" sourceLinked="0"/>
@@ -925,227 +931,224 @@
                 <c:pt idx="69">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>2020</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'GDP fit 1950 onward'!$B$2:$B$72</c:f>
+              <c:f>'GDP fit 1950 onward'!$C$2:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>10055514092412.6</c:v>
+                  <c:v>10.055514092412599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10574003652690.6</c:v>
+                  <c:v>10.5740036526906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11112180989322.6</c:v>
+                  <c:v>11.112180989322599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11673696639242.199</c:v>
+                  <c:v>11.673696639242198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12262058159971.801</c:v>
+                  <c:v>12.262058159971801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12880545549226.1</c:v>
+                  <c:v>12.880545549226099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13397629778640</c:v>
+                  <c:v>13.397629778640001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13938184504141.801</c:v>
+                  <c:v>13.9381845041418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14503530349789.6</c:v>
+                  <c:v>14.5035303497896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15094609085613.199</c:v>
+                  <c:v>15.094609085613198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15712325960369</c:v>
+                  <c:v>15.712325960369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16501629199425.6</c:v>
+                  <c:v>16.501629199425601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17333974588255.6</c:v>
+                  <c:v>17.3339745882556</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18213370146729.199</c:v>
+                  <c:v>18.213370146729201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19144584308386.801</c:v>
+                  <c:v>19.144584308386801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20131812033964.699</c:v>
+                  <c:v>20.1318120339647</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21159190746218.5</c:v>
+                  <c:v>21.159190746218499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22246094676454.699</c:v>
+                  <c:v>22.2460946764547</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23392184192569.398</c:v>
+                  <c:v>23.392184192569399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24595475638840</c:v>
+                  <c:v>24.59547563884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25854576865336</c:v>
+                  <c:v>25.854576865336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26854989112493.301</c:v>
+                  <c:v>26.8549891124933</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27887115459262.699</c:v>
+                  <c:v>27.887115459262699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28949436385227.602</c:v>
+                  <c:v>28.949436385227603</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30040064613821.301</c:v>
+                  <c:v>30.040064613821301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31158047308531.301</c:v>
+                  <c:v>31.158047308531302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32345980730990.102</c:v>
+                  <c:v>32.3459807309901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>33565454626545.5</c:v>
+                  <c:v>33.565454626545502</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34821527355270.102</c:v>
+                  <c:v>34.821527355270099</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36121413673251.703</c:v>
+                  <c:v>36.121413673251702</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37471380941660.898</c:v>
+                  <c:v>37.471380941660897</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38569546876065.703</c:v>
+                  <c:v>38.569546876065701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39699873265920</c:v>
+                  <c:v>39.699873265919997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40866521687547.5</c:v>
+                  <c:v>40.866521687547497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42074474901932.398</c:v>
+                  <c:v>42.074474901932398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43326581001908.203</c:v>
+                  <c:v>43.326581001908202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44848525108964.898</c:v>
+                  <c:v>44.8485251089649</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46429978774169.5</c:v>
+                  <c:v>46.429978774169498</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>48060150058826.797</c:v>
+                  <c:v>48.0601500588268</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49722908710982</c:v>
+                  <c:v>49.722908710981997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51405826094280.297</c:v>
+                  <c:v>51.4058260942803</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52091202402545.602</c:v>
+                  <c:v>52.091202402545605</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52916636101526.203</c:v>
+                  <c:v>52.916636101526201</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53758600768556</c:v>
+                  <c:v>53.758600768556001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55234460874553.297</c:v>
+                  <c:v>55.234460874553299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56933571755271.398</c:v>
+                  <c:v>56.933571755271402</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59063007683268</c:v>
+                  <c:v>59.063007683267998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>61326540719099</c:v>
+                  <c:v>61.326540719099</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62824313805712.898</c:v>
+                  <c:v>62.824313805712897</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65008935762665.203</c:v>
+                  <c:v>65.008935762665203</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68069355940192.398</c:v>
+                  <c:v>68.069355940192395</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69640496084556.398</c:v>
+                  <c:v>69.640496084556403</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71525495267292.406</c:v>
+                  <c:v>71.525495267292399</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>74194971548447.797</c:v>
+                  <c:v>74.194971548447796</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>77960207494510.906</c:v>
+                  <c:v>77.960207494510911</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>81518972224514.797</c:v>
+                  <c:v>81.518972224514798</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>85716186927040.297</c:v>
+                  <c:v>85.716186927040297</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>90163276673055.906</c:v>
+                  <c:v>90.163276673055904</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92574354049531.094</c:v>
+                  <c:v>92.574354049531095</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>91970043536117</c:v>
+                  <c:v>91.970043536117004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>96633860500449.594</c:v>
+                  <c:v>96.6338605004496</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100409960053786</c:v>
+                  <c:v>100.40996005378599</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>103608810086304</c:v>
+                  <c:v>103.608810086304</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>107030557756632</c:v>
+                  <c:v>107.03055775663201</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>110722102974546</c:v>
+                  <c:v>110.722102974546</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>114460625395125</c:v>
+                  <c:v>114.46062539512501</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>118153068682942</c:v>
+                  <c:v>118.15306868294201</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>122599002779826</c:v>
+                  <c:v>122.59900277982599</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>126957301124778</c:v>
+                  <c:v>126.957301124778</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>130475531512063</c:v>
+                  <c:v>130.47553151206299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,219 +1409,219 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'GDP fit 1950 onward'!$C$2:$C$71</c:f>
+              <c:f>'GDP fit 1950 onward'!$D$2:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>11609032408585.934</c:v>
+                  <c:v>11.609032408585934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12032934192468.676</c:v>
+                  <c:v>12.032934192468677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12472314675699.873</c:v>
+                  <c:v>12.472314675699872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12927739060273.545</c:v>
+                  <c:v>12.927739060273543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13399793186435.473</c:v>
+                  <c:v>13.399793186435472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13889084286285.344</c:v>
+                  <c:v>13.889084286285344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14396241764896.541</c:v>
+                  <c:v>14.396241764896541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14921918009958.398</c:v>
+                  <c:v>14.921918009958398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15466789230982.396</c:v>
+                  <c:v>15.466789230982396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16031556329151.586</c:v>
+                  <c:v>16.031556329151588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16616945798933.574</c:v>
+                  <c:v>16.616945798933575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17223710662613.439</c:v>
+                  <c:v>17.223710662613438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17852631438953.262</c:v>
+                  <c:v>17.85263143895326</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18504517147220.934</c:v>
+                  <c:v>18.504517147220934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19180206347881.133</c:v>
+                  <c:v>19.180206347881132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19880568221286.93</c:v>
+                  <c:v>19.880568221286932</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20606503685759.684</c:v>
+                  <c:v>20.606503685759684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21358946556495.352</c:v>
+                  <c:v>21.358946556495351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22138864746788.129</c:v>
+                  <c:v>22.138864746788126</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22947261513116.508</c:v>
+                  <c:v>22.947261513116505</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23785176745693.477</c:v>
+                  <c:v>23.785176745693477</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24653688306140.91</c:v>
+                  <c:v>24.653688306140907</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25553913414008.895</c:v>
+                  <c:v>25.553913414008893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26487010083923.605</c:v>
+                  <c:v>26.487010083923607</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27454178615212.34</c:v>
+                  <c:v>27.454178615212342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28456663135921.57</c:v>
+                  <c:v>28.45666313592157</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29495753203216.574</c:v>
+                  <c:v>29.495753203216573</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30572785462215.289</c:v>
+                  <c:v>30.57278546221529</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31689145365398.297</c:v>
+                  <c:v>31.689145365398296</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32846268954800.707</c:v>
+                  <c:v>32.846268954800706</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34045644709280.863</c:v>
+                  <c:v>34.045644709280865</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35288815459241.766</c:v>
+                  <c:v>35.288815459241761</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36577380371268.188</c:v>
+                  <c:v>36.577380371268184</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37912997005232.5</c:v>
+                  <c:v>37.912997005232505</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39297383446515.312</c:v>
+                  <c:v>39.297383446515312</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40732320516083.805</c:v>
+                  <c:v>40.732320516083803</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42219654061270.688</c:v>
+                  <c:v>42.219654061270681</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43761297330200.531</c:v>
+                  <c:v>43.761297330200527</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45359233432917.867</c:v>
+                  <c:v>45.359233432917861</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>47015517892382.961</c:v>
+                  <c:v>47.01551789238296</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48732281288616.75</c:v>
+                  <c:v>48.732281288616747</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50511731999396.227</c:v>
+                  <c:v>50.511731999396225</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52356159041025.141</c:v>
+                  <c:v>52.356159041025137</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>54267935012838.664</c:v>
+                  <c:v>54.267935012838663</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56249519149218.648</c:v>
+                  <c:v>56.249519149218649</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58303460483060.148</c:v>
+                  <c:v>58.303460483060149</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>60432401124747.664</c:v>
+                  <c:v>60.432401124747663</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>62639079660863.352</c:v>
+                  <c:v>62.639079660863345</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>64926334676998.453</c:v>
+                  <c:v>64.926334676998451</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>67297108409199.617</c:v>
+                  <c:v>67.297108409199623</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>69754450528747.102</c:v>
+                  <c:v>69.7544505287471</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>72301522065133.484</c:v>
+                  <c:v>72.301522065133483</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74941599472289.312</c:v>
+                  <c:v>74.941599472289312</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77678078843286.172</c:v>
+                  <c:v>77.678078843286173</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>80514480278938.984</c:v>
+                  <c:v>80.51448027893899</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>83454452415927.047</c:v>
+                  <c:v>83.454452415927037</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86501777120258.547</c:v>
+                  <c:v>86.501777120258538</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>89660374352116.172</c:v>
+                  <c:v>89.660374352116165</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92934307208340.375</c:v>
+                  <c:v>92.934307208340371</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>96327787149044.641</c:v>
+                  <c:v>96.327787149044639</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>99845179415066.484</c:v>
+                  <c:v>99.845179415066482</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>103491008643248.86</c:v>
+                  <c:v>103.49100864324886</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>107269964686756.12</c:v>
+                  <c:v>107.26996468675613</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>111186908647918.98</c:v>
+                  <c:v>111.18690864791898</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>115246879131367.84</c:v>
+                  <c:v>115.24687913136785</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>119455098725498.2</c:v>
+                  <c:v>119.4550987254982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>123816980720605.47</c:v>
+                  <c:v>123.81698072060547</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>128338136072331.53</c:v>
+                  <c:v>128.33813607233154</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>133024380619380.22</c:v>
+                  <c:v>133.02438061938022</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>137881742564786.38</c:v>
+                  <c:v>137.88174256478638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,13 +4159,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -4534,19 +4537,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4554,884 +4557,1169 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1950</v>
       </c>
       <c r="B2">
         <v>10055514092412.6</v>
       </c>
-      <c r="C2" s="1">
-        <f>$E$2*EXP($E$3*A2)</f>
-        <v>11609032408585.934</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <f>B2/1000000000000</f>
+        <v>10.055514092412599</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D33" si="0">$F$2*EXP($F$3*A2)</f>
+        <v>11.609032408585934</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>4.9264716164000003E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>4.9264716164000002E-30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1951</v>
       </c>
       <c r="B3">
         <v>10574003652690.6</v>
       </c>
-      <c r="C3" s="1">
-        <f>$E$2*EXP($E$3*A3)</f>
-        <v>12032934192468.676</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">B3/1000000000000</f>
+        <v>10.5740036526906</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>12.032934192468677</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>3.5863955490000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1952</v>
       </c>
       <c r="B4">
         <v>11112180989322.6</v>
       </c>
-      <c r="C4" s="1">
-        <f>$E$2*EXP($E$3*A4)</f>
-        <v>12472314675699.873</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>11.112180989322599</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>12.472314675699872</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.99669854500999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1953</v>
       </c>
       <c r="B5">
         <v>11673696639242.199</v>
       </c>
-      <c r="C5" s="1">
-        <f>$E$2*EXP($E$3*A5)</f>
-        <v>12927739060273.545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>11.673696639242198</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>12.927739060273543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1954</v>
       </c>
       <c r="B6">
         <v>12262058159971.801</v>
       </c>
-      <c r="C6" s="1">
-        <f>$E$2*EXP($E$3*A6)</f>
-        <v>13399793186435.473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>12.262058159971801</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>13.399793186435472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1955</v>
       </c>
       <c r="B7">
         <v>12880545549226.1</v>
       </c>
-      <c r="C7" s="1">
-        <f>$E$2*EXP($E$3*A7)</f>
-        <v>13889084286285.344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>12.880545549226099</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>13.889084286285344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1956</v>
       </c>
       <c r="B8">
         <v>13397629778640</v>
       </c>
-      <c r="C8" s="1">
-        <f>$E$2*EXP($E$3*A8)</f>
-        <v>14396241764896.541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>13.397629778640001</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>14.396241764896541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1957</v>
       </c>
       <c r="B9">
         <v>13938184504141.801</v>
       </c>
-      <c r="C9" s="1">
-        <f>$E$2*EXP($E$3*A9)</f>
-        <v>14921918009958.398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>13.9381845041418</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>14.921918009958398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1958</v>
       </c>
       <c r="B10">
         <v>14503530349789.6</v>
       </c>
-      <c r="C10" s="1">
-        <f>$E$2*EXP($E$3*A10)</f>
-        <v>15466789230982.396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>14.5035303497896</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>15.466789230982396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1959</v>
       </c>
       <c r="B11">
         <v>15094609085613.199</v>
       </c>
-      <c r="C11" s="1">
-        <f>$E$2*EXP($E$3*A11)</f>
-        <v>16031556329151.586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>15.094609085613198</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>16.031556329151588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1960</v>
       </c>
       <c r="B12">
         <v>15712325960369</v>
       </c>
-      <c r="C12" s="1">
-        <f>$E$2*EXP($E$3*A12)</f>
-        <v>16616945798933.574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>15.712325960369</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>16.616945798933575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1961</v>
       </c>
       <c r="B13">
         <v>16501629199425.6</v>
       </c>
-      <c r="C13" s="1">
-        <f>$E$2*EXP($E$3*A13)</f>
-        <v>17223710662613.439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>16.501629199425601</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>17.223710662613438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1962</v>
       </c>
       <c r="B14">
         <v>17333974588255.6</v>
       </c>
-      <c r="C14" s="1">
-        <f>$E$2*EXP($E$3*A14)</f>
-        <v>17852631438953.262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>17.3339745882556</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>17.85263143895326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1963</v>
       </c>
       <c r="B15">
         <v>18213370146729.199</v>
       </c>
-      <c r="C15" s="1">
-        <f>$E$2*EXP($E$3*A15)</f>
-        <v>18504517147220.934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>18.213370146729201</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>18.504517147220934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1964</v>
       </c>
       <c r="B16">
         <v>19144584308386.801</v>
       </c>
-      <c r="C16" s="1">
-        <f>$E$2*EXP($E$3*A16)</f>
-        <v>19180206347881.133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>19.144584308386801</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>19.180206347881132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1965</v>
       </c>
       <c r="B17">
         <v>20131812033964.699</v>
       </c>
-      <c r="C17" s="1">
-        <f>$E$2*EXP($E$3*A17)</f>
-        <v>19880568221286.93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>20.1318120339647</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>19.880568221286932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1966</v>
       </c>
       <c r="B18">
         <v>21159190746218.5</v>
       </c>
-      <c r="C18" s="1">
-        <f>$E$2*EXP($E$3*A18)</f>
-        <v>20606503685759.684</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>21.159190746218499</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>20.606503685759684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1967</v>
       </c>
       <c r="B19">
         <v>22246094676454.699</v>
       </c>
-      <c r="C19" s="1">
-        <f>$E$2*EXP($E$3*A19)</f>
-        <v>21358946556495.352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>22.2460946764547</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>21.358946556495351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1968</v>
       </c>
       <c r="B20">
         <v>23392184192569.398</v>
       </c>
-      <c r="C20" s="1">
-        <f>$E$2*EXP($E$3*A20)</f>
-        <v>22138864746788.129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>23.392184192569399</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>22.138864746788126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1969</v>
       </c>
       <c r="B21">
         <v>24595475638840</v>
       </c>
-      <c r="C21" s="1">
-        <f>$E$2*EXP($E$3*A21)</f>
-        <v>22947261513116.508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>24.59547563884</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>22.947261513116505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1970</v>
       </c>
       <c r="B22">
         <v>25854576865336</v>
       </c>
-      <c r="C22" s="1">
-        <f>$E$2*EXP($E$3*A22)</f>
-        <v>23785176745693.477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>25.854576865336</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>23.785176745693477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1971</v>
       </c>
       <c r="B23">
         <v>26854989112493.301</v>
       </c>
-      <c r="C23" s="1">
-        <f>$E$2*EXP($E$3*A23)</f>
-        <v>24653688306140.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>26.8549891124933</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>24.653688306140907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1972</v>
       </c>
       <c r="B24">
         <v>27887115459262.699</v>
       </c>
-      <c r="C24" s="1">
-        <f>$E$2*EXP($E$3*A24)</f>
-        <v>25553913414008.895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>27.887115459262699</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>25.553913414008893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1973</v>
       </c>
       <c r="B25">
         <v>28949436385227.602</v>
       </c>
-      <c r="C25" s="1">
-        <f>$E$2*EXP($E$3*A25)</f>
-        <v>26487010083923.605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>28.949436385227603</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>26.487010083923607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1974</v>
       </c>
       <c r="B26">
         <v>30040064613821.301</v>
       </c>
-      <c r="C26" s="1">
-        <f>$E$2*EXP($E$3*A26)</f>
-        <v>27454178615212.34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>30.040064613821301</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>27.454178615212342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1975</v>
       </c>
       <c r="B27">
         <v>31158047308531.301</v>
       </c>
-      <c r="C27" s="1">
-        <f>$E$2*EXP($E$3*A27)</f>
-        <v>28456663135921.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>31.158047308531302</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>28.45666313592157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1976</v>
       </c>
       <c r="B28">
         <v>32345980730990.102</v>
       </c>
-      <c r="C28" s="1">
-        <f>$E$2*EXP($E$3*A28)</f>
-        <v>29495753203216.574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>32.3459807309901</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>29.495753203216573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1977</v>
       </c>
       <c r="B29">
         <v>33565454626545.5</v>
       </c>
-      <c r="C29" s="1">
-        <f>$E$2*EXP($E$3*A29)</f>
-        <v>30572785462215.289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>33.565454626545502</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>30.57278546221529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1978</v>
       </c>
       <c r="B30">
         <v>34821527355270.102</v>
       </c>
-      <c r="C30" s="1">
-        <f>$E$2*EXP($E$3*A30)</f>
-        <v>31689145365398.297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>34.821527355270099</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>31.689145365398296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1979</v>
       </c>
       <c r="B31">
         <v>36121413673251.703</v>
       </c>
-      <c r="C31" s="1">
-        <f>$E$2*EXP($E$3*A31)</f>
-        <v>32846268954800.707</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>36.121413673251702</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>32.846268954800706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1980</v>
       </c>
       <c r="B32">
         <v>37471380941660.898</v>
       </c>
-      <c r="C32" s="1">
-        <f>$E$2*EXP($E$3*A32)</f>
-        <v>34045644709280.863</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>37.471380941660897</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>34.045644709280865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1981</v>
       </c>
       <c r="B33">
         <v>38569546876065.703</v>
       </c>
-      <c r="C33" s="1">
-        <f>$E$2*EXP($E$3*A33)</f>
-        <v>35288815459241.766</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>38.569546876065701</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>35.288815459241761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1982</v>
       </c>
       <c r="B34">
         <v>39699873265920</v>
       </c>
-      <c r="C34" s="1">
-        <f>$E$2*EXP($E$3*A34)</f>
-        <v>36577380371268.188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>39.699873265919997</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34:D65" si="2">$F$2*EXP($F$3*A34)</f>
+        <v>36.577380371268184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1983</v>
       </c>
       <c r="B35">
         <v>40866521687547.5</v>
       </c>
-      <c r="C35" s="1">
-        <f>$E$2*EXP($E$3*A35)</f>
-        <v>37912997005232.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>40.866521687547497</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>37.912997005232505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1984</v>
       </c>
       <c r="B36">
         <v>42074474901932.398</v>
       </c>
-      <c r="C36" s="1">
-        <f>$E$2*EXP($E$3*A36)</f>
-        <v>39297383446515.312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>42.074474901932398</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>39.297383446515312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1985</v>
       </c>
       <c r="B37">
         <v>43326581001908.203</v>
       </c>
-      <c r="C37" s="1">
-        <f>$E$2*EXP($E$3*A37)</f>
-        <v>40732320516083.805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>43.326581001908202</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>40.732320516083803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1986</v>
       </c>
       <c r="B38">
         <v>44848525108964.898</v>
       </c>
-      <c r="C38" s="1">
-        <f>$E$2*EXP($E$3*A38)</f>
-        <v>42219654061270.688</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>44.8485251089649</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>42.219654061270681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1987</v>
       </c>
       <c r="B39">
         <v>46429978774169.5</v>
       </c>
-      <c r="C39" s="1">
-        <f>$E$2*EXP($E$3*A39)</f>
-        <v>43761297330200.531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>46.429978774169498</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>43.761297330200527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1988</v>
       </c>
       <c r="B40">
         <v>48060150058826.797</v>
       </c>
-      <c r="C40" s="1">
-        <f>$E$2*EXP($E$3*A40)</f>
-        <v>45359233432917.867</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>48.0601500588268</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>45.359233432917861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1989</v>
       </c>
       <c r="B41">
         <v>49722908710982</v>
       </c>
-      <c r="C41" s="1">
-        <f>$E$2*EXP($E$3*A41)</f>
-        <v>47015517892382.961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>49.722908710981997</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>47.01551789238296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1990</v>
       </c>
       <c r="B42">
         <v>51405826094280.297</v>
       </c>
-      <c r="C42" s="1">
-        <f>$E$2*EXP($E$3*A42)</f>
-        <v>48732281288616.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>51.4058260942803</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>48.732281288616747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1991</v>
       </c>
       <c r="B43">
         <v>52091202402545.602</v>
       </c>
-      <c r="C43" s="1">
-        <f>$E$2*EXP($E$3*A43)</f>
-        <v>50511731999396.227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>52.091202402545605</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>50.511731999396225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1992</v>
       </c>
       <c r="B44">
         <v>52916636101526.203</v>
       </c>
-      <c r="C44" s="1">
-        <f>$E$2*EXP($E$3*A44)</f>
-        <v>52356159041025.141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>52.916636101526201</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="2"/>
+        <v>52.356159041025137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1993</v>
       </c>
       <c r="B45">
         <v>53758600768556</v>
       </c>
-      <c r="C45" s="1">
-        <f>$E$2*EXP($E$3*A45)</f>
-        <v>54267935012838.664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>53.758600768556001</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
+        <v>54.267935012838663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1994</v>
       </c>
       <c r="B46">
         <v>55234460874553.297</v>
       </c>
-      <c r="C46" s="1">
-        <f>$E$2*EXP($E$3*A46)</f>
-        <v>56249519149218.648</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>55.234460874553299</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="2"/>
+        <v>56.249519149218649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1995</v>
       </c>
       <c r="B47">
         <v>56933571755271.398</v>
       </c>
-      <c r="C47" s="1">
-        <f>$E$2*EXP($E$3*A47)</f>
-        <v>58303460483060.148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>56.933571755271402</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="2"/>
+        <v>58.303460483060149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1996</v>
       </c>
       <c r="B48">
         <v>59063007683268</v>
       </c>
-      <c r="C48" s="1">
-        <f>$E$2*EXP($E$3*A48)</f>
-        <v>60432401124747.664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>59.063007683267998</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="2"/>
+        <v>60.432401124747663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1997</v>
       </c>
       <c r="B49">
         <v>61326540719099</v>
       </c>
-      <c r="C49" s="1">
-        <f>$E$2*EXP($E$3*A49)</f>
-        <v>62639079660863.352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>61.326540719099</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="2"/>
+        <v>62.639079660863345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1998</v>
       </c>
       <c r="B50">
         <v>62824313805712.898</v>
       </c>
-      <c r="C50" s="1">
-        <f>$E$2*EXP($E$3*A50)</f>
-        <v>64926334676998.453</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>62.824313805712897</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="2"/>
+        <v>64.926334676998451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1999</v>
       </c>
       <c r="B51">
         <v>65008935762665.203</v>
       </c>
-      <c r="C51" s="1">
-        <f>$E$2*EXP($E$3*A51)</f>
-        <v>67297108409199.617</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>65.008935762665203</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="2"/>
+        <v>67.297108409199623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2000</v>
       </c>
       <c r="B52">
         <v>68069355940192.398</v>
       </c>
-      <c r="C52" s="1">
-        <f>$E$2*EXP($E$3*A52)</f>
-        <v>69754450528747.102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>68.069355940192395</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="2"/>
+        <v>69.7544505287471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2001</v>
       </c>
       <c r="B53">
         <v>69640496084556.398</v>
       </c>
-      <c r="C53" s="1">
-        <f>$E$2*EXP($E$3*A53)</f>
-        <v>72301522065133.484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>69.640496084556403</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="2"/>
+        <v>72.301522065133483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2002</v>
       </c>
       <c r="B54">
         <v>71525495267292.406</v>
       </c>
-      <c r="C54" s="1">
-        <f>$E$2*EXP($E$3*A54)</f>
-        <v>74941599472289.312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>71.525495267292399</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="2"/>
+        <v>74.941599472289312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2003</v>
       </c>
       <c r="B55">
         <v>74194971548447.797</v>
       </c>
-      <c r="C55" s="1">
-        <f>$E$2*EXP($E$3*A55)</f>
-        <v>77678078843286.172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>74.194971548447796</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="2"/>
+        <v>77.678078843286173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2004</v>
       </c>
       <c r="B56">
         <v>77960207494510.906</v>
       </c>
-      <c r="C56" s="1">
-        <f>$E$2*EXP($E$3*A56)</f>
-        <v>80514480278938.984</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>77.960207494510911</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="2"/>
+        <v>80.51448027893899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2005</v>
       </c>
       <c r="B57">
         <v>81518972224514.797</v>
       </c>
-      <c r="C57" s="1">
-        <f>$E$2*EXP($E$3*A57)</f>
-        <v>83454452415927.047</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>81.518972224514798</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>83.454452415927037</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2006</v>
       </c>
       <c r="B58">
         <v>85716186927040.297</v>
       </c>
-      <c r="C58" s="1">
-        <f>$E$2*EXP($E$3*A58)</f>
-        <v>86501777120258.547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>85.716186927040297</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="2"/>
+        <v>86.501777120258538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2007</v>
       </c>
       <c r="B59">
         <v>90163276673055.906</v>
       </c>
-      <c r="C59" s="1">
-        <f>$E$2*EXP($E$3*A59)</f>
-        <v>89660374352116.172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>90.163276673055904</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="2"/>
+        <v>89.660374352116165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2008</v>
       </c>
       <c r="B60">
         <v>92574354049531.094</v>
       </c>
-      <c r="C60" s="1">
-        <f>$E$2*EXP($E$3*A60)</f>
-        <v>92934307208340.375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>92.574354049531095</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="2"/>
+        <v>92.934307208340371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2009</v>
       </c>
       <c r="B61">
         <v>91970043536117</v>
       </c>
-      <c r="C61" s="1">
-        <f>$E$2*EXP($E$3*A61)</f>
-        <v>96327787149044.641</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>91.970043536117004</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="2"/>
+        <v>96.327787149044639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2010</v>
       </c>
       <c r="B62">
         <v>96633860500449.594</v>
       </c>
-      <c r="C62" s="1">
-        <f>$E$2*EXP($E$3*A62)</f>
-        <v>99845179415066.484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>96.6338605004496</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="2"/>
+        <v>99.845179415066482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2011</v>
       </c>
       <c r="B63">
         <v>100409960053786</v>
       </c>
-      <c r="C63" s="1">
-        <f>$E$2*EXP($E$3*A63)</f>
-        <v>103491008643248.86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>100.40996005378599</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="2"/>
+        <v>103.49100864324886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2012</v>
       </c>
       <c r="B64">
         <v>103608810086304</v>
       </c>
-      <c r="C64" s="1">
-        <f>$E$2*EXP($E$3*A64)</f>
-        <v>107269964686756.12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>103.608810086304</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="2"/>
+        <v>107.26996468675613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2013</v>
       </c>
       <c r="B65">
         <v>107030557756632</v>
       </c>
-      <c r="C65" s="1">
-        <f>$E$2*EXP($E$3*A65)</f>
-        <v>111186908647918.98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>107.03055775663201</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="2"/>
+        <v>111.18690864791898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2014</v>
       </c>
       <c r="B66">
         <v>110722102974546</v>
       </c>
-      <c r="C66" s="1">
-        <f>$E$2*EXP($E$3*A66)</f>
-        <v>115246879131367.84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>110.722102974546</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" ref="D66:D71" si="3">$F$2*EXP($F$3*A66)</f>
+        <v>115.24687913136785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2015</v>
       </c>
       <c r="B67">
         <v>114460625395125</v>
       </c>
-      <c r="C67" s="1">
-        <f>$E$2*EXP($E$3*A67)</f>
-        <v>119455098725498.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f t="shared" ref="C67:C71" si="4">B67/1000000000000</f>
+        <v>114.46062539512501</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="3"/>
+        <v>119.4550987254982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2016</v>
       </c>
       <c r="B68">
         <v>118153068682942</v>
       </c>
-      <c r="C68" s="1">
-        <f>$E$2*EXP($E$3*A68)</f>
-        <v>123816980720605.47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>118.15306868294201</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="3"/>
+        <v>123.81698072060547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2017</v>
       </c>
       <c r="B69">
         <v>122599002779826</v>
       </c>
-      <c r="C69" s="1">
-        <f>$E$2*EXP($E$3*A69)</f>
-        <v>128338136072331.53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>122.59900277982599</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="3"/>
+        <v>128.33813607233154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
       <c r="B70">
         <v>126957301124778</v>
       </c>
-      <c r="C70" s="1">
-        <f>$E$2*EXP($E$3*A70)</f>
-        <v>133024380619380.22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>126.957301124778</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="3"/>
+        <v>133.02438061938022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2019</v>
       </c>
       <c r="B71">
         <v>130475531512063</v>
       </c>
-      <c r="C71" s="1">
-        <f>$E$2*EXP($E$3*A71)</f>
-        <v>137881742564786.38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>2020</v>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>130.47553151206299</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="3"/>
+        <v>137.88174256478638</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5448,10 +5736,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -5504,6 +5792,12 @@
         <f t="shared" si="0"/>
         <v>4.5827043220174852</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.98937273541699999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -6323,6 +6617,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>